--- a/travel_insurance_plans.xlsx
+++ b/travel_insurance_plans.xlsx
@@ -6,14 +6,14 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Plans Without Medical" r:id="rId4" sheetId="12"/>
-    <sheet name="Plans With Medical" r:id="rId5" sheetId="13"/>
+    <sheet name="Plans Without Medical" r:id="rId4" sheetId="14"/>
+    <sheet name="Plans With Medical" r:id="rId5" sheetId="15"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="13">
   <si>
     <t>Provider Name</t>
   </si>
@@ -94,7 +94,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -143,7 +143,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:B4"/>
   <sheetViews>

--- a/travel_insurance_plans.xlsx
+++ b/travel_insurance_plans.xlsx
@@ -6,14 +6,14 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Plans Without Medical" r:id="rId4" sheetId="14"/>
-    <sheet name="Plans With Medical" r:id="rId5" sheetId="15"/>
+    <sheet name="Plans Without Medical" r:id="rId4" sheetId="16"/>
+    <sheet name="Plans With Medical" r:id="rId5" sheetId="17"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="13">
   <si>
     <t>Provider Name</t>
   </si>
@@ -94,7 +94,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -143,7 +143,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:B4"/>
   <sheetViews>

--- a/travel_insurance_plans.xlsx
+++ b/travel_insurance_plans.xlsx
@@ -6,14 +6,14 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Plans Without Medical" r:id="rId4" sheetId="16"/>
     <sheet name="Plans With Medical" r:id="rId5" sheetId="17"/>
+    <sheet name="Plans Without Medical" r:id="rId4" sheetId="18"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="13">
   <si>
     <t>Provider Name</t>
   </si>
@@ -94,7 +94,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -102,7 +102,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="12.98046875"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="21.42578125"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="5.96875"/>
   </cols>
   <sheetData>
@@ -119,23 +119,23 @@
         <v>2</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -143,7 +143,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:B4"/>
   <sheetViews>
